--- a/process/data/number/number.xlsx
+++ b/process/data/number/number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\myproject\guess-game\process\data\number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{167E40FF-BD84-4985-B3FF-1FFFED8F6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82296E-BB65-47DB-8529-D05058714DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="4764" windowWidth="19200" windowHeight="11208" activeTab="2" xr2:uid="{6FB58221-335D-48A8-89A1-15320B14C583}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="19200" windowHeight="13776" activeTab="2" xr2:uid="{6FB58221-335D-48A8-89A1-15320B14C583}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/pic/one.png</t>
+    <t>数字炸弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数字炸弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://i.postimg.cc/Kjdg7KkR/one.png</t>
   </si>
 </sst>
 </file>
@@ -643,7 +642,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -668,10 +667,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
